--- a/rai_danchang.xlsx
+++ b/rai_danchang.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unlock_2023\ML_KKU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7883BA68-AB8F-43BF-9E1F-1E7FC4367AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A00269-116F-4405-BB37-2B36524D2FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="624" windowWidth="16560" windowHeight="12240" xr2:uid="{64C3B583-95B3-4156-A2C4-B8CED2A986F2}"/>
+    <workbookView xWindow="10200" yWindow="312" windowWidth="14580" windowHeight="12240" xr2:uid="{64C3B583-95B3-4156-A2C4-B8CED2A986F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$421</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="119">
   <si>
     <t>Zone</t>
   </si>
@@ -1118,9 +1121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB04E720-C073-4E22-8C38-A67E3589081B}">
-  <dimension ref="A1:T422"/>
+  <dimension ref="A1:T421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="62.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25452,7 +25457,7 @@
         <v>243243</v>
       </c>
       <c r="R386" s="33">
-        <f t="shared" ref="R386:R422" si="6">+Q386-G386</f>
+        <f t="shared" ref="R386:R421" si="6">+Q386-G386</f>
         <v>289</v>
       </c>
       <c r="S386" s="34">
@@ -25909,22 +25914,22 @@
         <v>112</v>
       </c>
       <c r="C394" s="45">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="D394" s="44" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E394" s="24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F394" s="6">
-        <v>0</v>
+        <v>48.96</v>
       </c>
       <c r="G394" s="26">
-        <v>242881</v>
+        <v>242917</v>
       </c>
       <c r="H394" s="40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I394" s="37" t="s">
         <v>56</v>
@@ -25933,35 +25938,35 @@
         <v>1.85</v>
       </c>
       <c r="K394" s="4">
-        <v>0</v>
+        <v>1.7966666666666666</v>
       </c>
       <c r="L394" s="3">
-        <v>0</v>
+        <v>2.5866666666666664</v>
       </c>
       <c r="M394" s="38">
-        <v>0</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="N394" s="39">
-        <v>0</v>
+        <v>11646.846846846847</v>
       </c>
       <c r="O394" s="3">
-        <v>0</v>
+        <v>10.597260057430789</v>
       </c>
       <c r="P394" s="4">
-        <v>0</v>
+        <v>10.482162162162162</v>
       </c>
       <c r="Q394" s="32">
-        <v>0</v>
+        <v>243296</v>
       </c>
       <c r="R394" s="33">
         <f t="shared" si="6"/>
-        <v>-242881</v>
+        <v>379</v>
       </c>
       <c r="S394" s="34">
-        <v>0</v>
+        <v>9.7122140522875799</v>
       </c>
       <c r="T394" s="34">
-        <v>0</v>
+        <v>13.215917646316589</v>
       </c>
     </row>
     <row r="395" spans="1:20" x14ac:dyDescent="0.3">
@@ -25972,22 +25977,22 @@
         <v>112</v>
       </c>
       <c r="C395" s="45">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D395" s="44" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E395" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F395" s="6">
-        <v>48.96</v>
+        <v>12</v>
       </c>
       <c r="G395" s="26">
-        <v>242917</v>
+        <v>242886</v>
       </c>
       <c r="H395" s="40" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I395" s="37" t="s">
         <v>56</v>
@@ -25996,35 +26001,35 @@
         <v>1.85</v>
       </c>
       <c r="K395" s="4">
-        <v>1.7966666666666666</v>
+        <v>1.4866666666666666</v>
       </c>
       <c r="L395" s="3">
-        <v>2.5866666666666664</v>
+        <v>2.35</v>
       </c>
       <c r="M395" s="38">
-        <v>0.89999999999999991</v>
+        <v>0.96666666666666679</v>
       </c>
       <c r="N395" s="39">
-        <v>11646.846846846847</v>
+        <v>11935.135135135135</v>
       </c>
       <c r="O395" s="3">
-        <v>10.597260057430789</v>
+        <v>7.7113551856972977</v>
       </c>
       <c r="P395" s="4">
-        <v>10.482162162162162</v>
+        <v>11.537297297297298</v>
       </c>
       <c r="Q395" s="32">
-        <v>243296</v>
+        <v>243299</v>
       </c>
       <c r="R395" s="33">
         <f t="shared" si="6"/>
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="S395" s="34">
-        <v>9.7122140522875799</v>
+        <v>11.14</v>
       </c>
       <c r="T395" s="34">
-        <v>13.215917646316589</v>
+        <v>13.397537402752844</v>
       </c>
     </row>
     <row r="396" spans="1:20" x14ac:dyDescent="0.3">
@@ -26038,19 +26043,19 @@
         <v>1805</v>
       </c>
       <c r="D396" s="44" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E396" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F396" s="6">
-        <v>12</v>
+        <v>32.209999999999994</v>
       </c>
       <c r="G396" s="26">
-        <v>242886</v>
+        <v>242866</v>
       </c>
       <c r="H396" s="40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I396" s="37" t="s">
         <v>56</v>
@@ -26059,29 +26064,29 @@
         <v>1.85</v>
       </c>
       <c r="K396" s="4">
-        <v>1.4866666666666666</v>
+        <v>1.6899999999999997</v>
       </c>
       <c r="L396" s="3">
-        <v>2.35</v>
+        <v>2.2966666666666664</v>
       </c>
       <c r="M396" s="38">
-        <v>0.96666666666666679</v>
+        <v>1.4333333333333333</v>
       </c>
       <c r="N396" s="39">
-        <v>11935.135135135135</v>
+        <v>12944.144144144144</v>
       </c>
       <c r="O396" s="3">
-        <v>7.7113551856972977</v>
+        <v>9.0805053276570824</v>
       </c>
       <c r="P396" s="4">
-        <v>11.537297297297298</v>
+        <v>18.553273273273273</v>
       </c>
       <c r="Q396" s="32">
         <v>243299</v>
       </c>
       <c r="R396" s="33">
         <f t="shared" si="6"/>
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="S396" s="34">
         <v>11.14</v>
@@ -26098,59 +26103,59 @@
         <v>112</v>
       </c>
       <c r="C397" s="45">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="D397" s="44" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E397" s="24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F397" s="6">
-        <v>32.209999999999994</v>
+        <v>12.65</v>
       </c>
       <c r="G397" s="26">
-        <v>242866</v>
+        <v>242960</v>
       </c>
       <c r="H397" s="40" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I397" s="37" t="s">
         <v>56</v>
       </c>
       <c r="J397" s="28">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="K397" s="4">
-        <v>1.6899999999999997</v>
+        <v>1.8566666666666667</v>
       </c>
       <c r="L397" s="3">
-        <v>2.2966666666666664</v>
+        <v>2.5033333333333334</v>
       </c>
       <c r="M397" s="38">
-        <v>1.4333333333333333</v>
+        <v>0.93333333333333346</v>
       </c>
       <c r="N397" s="39">
-        <v>12944.144144144144</v>
+        <v>9664.6464646464647</v>
       </c>
       <c r="O397" s="3">
-        <v>9.0805053276570824</v>
+        <v>8.5112639885002412</v>
       </c>
       <c r="P397" s="4">
-        <v>18.553273273273273</v>
+        <v>9.0203367003367028</v>
       </c>
       <c r="Q397" s="32">
-        <v>243299</v>
+        <v>243300</v>
       </c>
       <c r="R397" s="33">
         <f t="shared" si="6"/>
-        <v>433</v>
+        <v>340</v>
       </c>
       <c r="S397" s="34">
-        <v>11.14</v>
+        <v>5.0703557312252965</v>
       </c>
       <c r="T397" s="34">
-        <v>13.397537402752844</v>
+        <v>13.813557842220142</v>
       </c>
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.3">
@@ -26161,19 +26166,19 @@
         <v>112</v>
       </c>
       <c r="C398" s="45">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="D398" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E398" s="24" t="s">
+      <c r="E398" s="35" t="s">
         <v>27</v>
       </c>
       <c r="F398" s="6">
-        <v>12.65</v>
+        <v>67.44</v>
       </c>
       <c r="G398" s="26">
-        <v>242960</v>
+        <v>242920</v>
       </c>
       <c r="H398" s="40" t="s">
         <v>24</v>
@@ -26182,38 +26187,38 @@
         <v>56</v>
       </c>
       <c r="J398" s="28">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="K398" s="4">
-        <v>1.8566666666666667</v>
+        <v>1.9766666666666666</v>
       </c>
       <c r="L398" s="3">
-        <v>2.5033333333333334</v>
+        <v>2.5766666666666667</v>
       </c>
       <c r="M398" s="38">
-        <v>0.93333333333333346</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N398" s="39">
-        <v>9664.6464646464647</v>
+        <v>10320.720720720719</v>
       </c>
       <c r="O398" s="3">
-        <v>8.5112639885002412</v>
+        <v>10.251719789930176</v>
       </c>
       <c r="P398" s="4">
-        <v>9.0203367003367028</v>
+        <v>12.04084084084084</v>
       </c>
       <c r="Q398" s="32">
-        <v>243300</v>
+        <v>243306</v>
       </c>
       <c r="R398" s="33">
         <f t="shared" si="6"/>
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="S398" s="34">
-        <v>5.0703557312252965</v>
+        <v>9.7182680901542113</v>
       </c>
       <c r="T398" s="34">
-        <v>13.813557842220142</v>
+        <v>13.208268690875801</v>
       </c>
     </row>
     <row r="399" spans="1:20" x14ac:dyDescent="0.3">
@@ -26224,22 +26229,22 @@
         <v>112</v>
       </c>
       <c r="C399" s="45">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="D399" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E399" s="35" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="E399" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="F399" s="6">
-        <v>67.44</v>
+        <v>32.25</v>
       </c>
       <c r="G399" s="26">
-        <v>242920</v>
+        <v>242885</v>
       </c>
       <c r="H399" s="40" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I399" s="37" t="s">
         <v>56</v>
@@ -26248,35 +26253,35 @@
         <v>1.85</v>
       </c>
       <c r="K399" s="4">
-        <v>1.9766666666666666</v>
+        <v>1.6366666666666667</v>
       </c>
       <c r="L399" s="3">
-        <v>2.5766666666666667</v>
+        <v>2.44</v>
       </c>
       <c r="M399" s="38">
-        <v>1.1666666666666667</v>
+        <v>0.86666666666666659</v>
       </c>
       <c r="N399" s="39">
-        <v>10320.720720720719</v>
+        <v>8735.135135135135</v>
       </c>
       <c r="O399" s="3">
-        <v>10.251719789930176</v>
+        <v>6.6982839836984507</v>
       </c>
       <c r="P399" s="4">
-        <v>12.04084084084084</v>
+        <v>7.5704504504504495</v>
       </c>
       <c r="Q399" s="32">
-        <v>243306</v>
+        <v>243307</v>
       </c>
       <c r="R399" s="33">
         <f t="shared" si="6"/>
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="S399" s="34">
-        <v>9.7182680901542113</v>
+        <v>6.2483720930232565</v>
       </c>
       <c r="T399" s="34">
-        <v>13.208268690875801</v>
+        <v>13.350396506376855</v>
       </c>
     </row>
     <row r="400" spans="1:20" x14ac:dyDescent="0.3">
@@ -26287,59 +26292,59 @@
         <v>112</v>
       </c>
       <c r="C400" s="45">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="D400" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E400" s="24" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="E400" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="F400" s="6">
-        <v>32.25</v>
+        <v>17.7</v>
       </c>
       <c r="G400" s="26">
-        <v>242885</v>
+        <v>242908</v>
       </c>
       <c r="H400" s="40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I400" s="37" t="s">
         <v>56</v>
       </c>
       <c r="J400" s="28">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="K400" s="4">
-        <v>1.6366666666666667</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="L400" s="3">
-        <v>2.44</v>
+        <v>2.7633333333333332</v>
       </c>
       <c r="M400" s="38">
-        <v>0.86666666666666659</v>
+        <v>1.1333333333333331</v>
       </c>
       <c r="N400" s="39">
-        <v>8735.135135135135</v>
+        <v>12024.242424242424</v>
       </c>
       <c r="O400" s="3">
-        <v>6.6982839836984507</v>
+        <v>14.246721026714441</v>
       </c>
       <c r="P400" s="4">
-        <v>7.5704504504504495</v>
+        <v>13.627474747474743</v>
       </c>
       <c r="Q400" s="32">
-        <v>243307</v>
+        <v>243294</v>
       </c>
       <c r="R400" s="33">
         <f t="shared" si="6"/>
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="S400" s="34">
-        <v>6.2483720930232565</v>
+        <v>8.6288135593220332</v>
       </c>
       <c r="T400" s="34">
-        <v>13.350396506376855</v>
+        <v>13.285258953709162</v>
       </c>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.3">
@@ -26350,19 +26355,19 @@
         <v>112</v>
       </c>
       <c r="C401" s="45">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D401" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E401" s="35" t="s">
+      <c r="E401" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F401" s="6">
-        <v>17.7</v>
+        <v>32.6</v>
       </c>
       <c r="G401" s="26">
-        <v>242908</v>
+        <v>242910</v>
       </c>
       <c r="H401" s="40" t="s">
         <v>24</v>
@@ -26371,38 +26376,38 @@
         <v>56</v>
       </c>
       <c r="J401" s="28">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="K401" s="4">
-        <v>2.0500000000000003</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="L401" s="3">
-        <v>2.7633333333333332</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="M401" s="38">
-        <v>1.1333333333333331</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="N401" s="39">
-        <v>12024.242424242424</v>
+        <v>14933.333333333334</v>
       </c>
       <c r="O401" s="3">
-        <v>14.246721026714441</v>
+        <v>15.01642682117927</v>
       </c>
       <c r="P401" s="4">
-        <v>13.627474747474743</v>
+        <v>13.937777777777777</v>
       </c>
       <c r="Q401" s="32">
-        <v>243294</v>
+        <v>243293</v>
       </c>
       <c r="R401" s="33">
         <f t="shared" si="6"/>
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S401" s="34">
-        <v>8.6288135593220332</v>
+        <v>7.7411042944785278</v>
       </c>
       <c r="T401" s="34">
-        <v>13.285258953709162</v>
+        <v>13.14292439372325</v>
       </c>
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.3">
@@ -26413,22 +26418,22 @@
         <v>112</v>
       </c>
       <c r="C402" s="45">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D402" s="44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E402" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F402" s="6">
-        <v>32.6</v>
+        <v>36.03</v>
       </c>
       <c r="G402" s="26">
-        <v>242910</v>
+        <v>242864</v>
       </c>
       <c r="H402" s="40" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I402" s="37" t="s">
         <v>56</v>
@@ -26437,35 +26442,35 @@
         <v>1.85</v>
       </c>
       <c r="K402" s="4">
-        <v>2.0166666666666671</v>
+        <v>1.95</v>
       </c>
       <c r="L402" s="3">
-        <v>2.5666666666666669</v>
+        <v>2.5533333333333332</v>
       </c>
       <c r="M402" s="38">
-        <v>0.93333333333333324</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N402" s="39">
-        <v>14933.333333333334</v>
+        <v>12828.82882882883</v>
       </c>
       <c r="O402" s="3">
-        <v>15.01642682117927</v>
+        <v>12.83484681628949</v>
       </c>
       <c r="P402" s="4">
-        <v>13.937777777777777</v>
+        <v>21.381381381381384</v>
       </c>
       <c r="Q402" s="32">
-        <v>243293</v>
+        <v>243290</v>
       </c>
       <c r="R402" s="33">
         <f t="shared" si="6"/>
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="S402" s="34">
-        <v>7.7411042944785278</v>
+        <v>12.41271162919789</v>
       </c>
       <c r="T402" s="34">
-        <v>13.14292439372325</v>
+        <v>13.145855600026833</v>
       </c>
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.3">
@@ -26476,7 +26481,7 @@
         <v>112</v>
       </c>
       <c r="C403" s="45">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D403" s="44" t="s">
         <v>32</v>
@@ -26485,10 +26490,10 @@
         <v>21</v>
       </c>
       <c r="F403" s="6">
-        <v>36.03</v>
+        <v>23.74</v>
       </c>
       <c r="G403" s="26">
-        <v>242864</v>
+        <v>242860</v>
       </c>
       <c r="H403" s="40" t="s">
         <v>44</v>
@@ -26500,35 +26505,35 @@
         <v>1.85</v>
       </c>
       <c r="K403" s="4">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="L403" s="3">
-        <v>2.5533333333333332</v>
+        <v>2.7333333333333329</v>
       </c>
       <c r="M403" s="38">
-        <v>1.6666666666666667</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="N403" s="39">
-        <v>12828.82882882883</v>
+        <v>14990.990990990991</v>
       </c>
       <c r="O403" s="3">
-        <v>12.83484681628949</v>
+        <v>18.861809309725722</v>
       </c>
       <c r="P403" s="4">
-        <v>21.381381381381384</v>
+        <v>30.481681681681678</v>
       </c>
       <c r="Q403" s="32">
-        <v>243290</v>
+        <v>243292</v>
       </c>
       <c r="R403" s="33">
         <f t="shared" si="6"/>
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="S403" s="34">
-        <v>12.41271162919789</v>
+        <v>11.662594776748106</v>
       </c>
       <c r="T403" s="34">
-        <v>13.145855600026833</v>
+        <v>12.861203452884025</v>
       </c>
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.3">
@@ -26536,62 +26541,62 @@
         <v>4</v>
       </c>
       <c r="B404" s="44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C404" s="45">
-        <v>1819</v>
+        <v>1901</v>
       </c>
       <c r="D404" s="44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E404" s="24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F404" s="6">
-        <v>23.74</v>
+        <v>15.96</v>
       </c>
       <c r="G404" s="26">
-        <v>242860</v>
+        <v>242919</v>
       </c>
       <c r="H404" s="40" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J404" s="28">
         <v>1.85</v>
       </c>
       <c r="K404" s="4">
-        <v>2.14</v>
+        <v>2.1466666666666665</v>
       </c>
       <c r="L404" s="3">
-        <v>2.7333333333333329</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="M404" s="38">
-        <v>2.0333333333333332</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="N404" s="39">
-        <v>14990.990990990991</v>
+        <v>8245.0450450450444</v>
       </c>
       <c r="O404" s="3">
-        <v>18.861809309725722</v>
+        <v>13.152479299951979</v>
       </c>
       <c r="P404" s="4">
-        <v>30.481681681681678</v>
+        <v>6.5960360360360344</v>
       </c>
       <c r="Q404" s="32">
-        <v>243292</v>
+        <v>243295</v>
       </c>
       <c r="R404" s="33">
         <f t="shared" si="6"/>
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="S404" s="34">
-        <v>11.662594776748106</v>
+        <v>12.12907268170426</v>
       </c>
       <c r="T404" s="34">
-        <v>12.861203452884025</v>
+        <v>13.515506767228016</v>
       </c>
     </row>
     <row r="405" spans="1:20" x14ac:dyDescent="0.3">
@@ -26602,7 +26607,7 @@
         <v>113</v>
       </c>
       <c r="C405" s="45">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D405" s="44" t="s">
         <v>29</v>
@@ -26611,10 +26616,10 @@
         <v>27</v>
       </c>
       <c r="F405" s="6">
-        <v>15.96</v>
+        <v>18.02</v>
       </c>
       <c r="G405" s="26">
-        <v>242919</v>
+        <v>242918</v>
       </c>
       <c r="H405" s="40" t="s">
         <v>24</v>
@@ -26626,35 +26631,35 @@
         <v>1.85</v>
       </c>
       <c r="K405" s="4">
-        <v>2.1466666666666665</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="L405" s="3">
-        <v>3.1333333333333333</v>
+        <v>3.2666666666666671</v>
       </c>
       <c r="M405" s="38">
-        <v>0.79999999999999993</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N405" s="39">
-        <v>8245.0450450450444</v>
+        <v>10897.297297297297</v>
       </c>
       <c r="O405" s="3">
-        <v>13.152479299951979</v>
+        <v>18.336818564324322</v>
       </c>
       <c r="P405" s="4">
-        <v>6.5960360360360344</v>
+        <v>9.4443243243243238</v>
       </c>
       <c r="Q405" s="32">
-        <v>243295</v>
+        <v>243283</v>
       </c>
       <c r="R405" s="33">
         <f t="shared" si="6"/>
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="S405" s="34">
-        <v>12.12907268170426</v>
+        <v>9.4084350721420638</v>
       </c>
       <c r="T405" s="34">
-        <v>13.515506767228016</v>
+        <v>13.327023711218592</v>
       </c>
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.3">
@@ -26665,22 +26670,22 @@
         <v>113</v>
       </c>
       <c r="C406" s="45">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D406" s="44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E406" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F406" s="6">
-        <v>18.02</v>
+        <v>24.68</v>
       </c>
       <c r="G406" s="26">
-        <v>242918</v>
+        <v>242895</v>
       </c>
       <c r="H406" s="40" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I406" s="37" t="s">
         <v>23</v>
@@ -26689,35 +26694,35 @@
         <v>1.85</v>
       </c>
       <c r="K406" s="4">
-        <v>2.0833333333333335</v>
+        <v>2.0133333333333332</v>
       </c>
       <c r="L406" s="3">
-        <v>3.2666666666666671</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="M406" s="38">
-        <v>0.8666666666666667</v>
+        <v>1.1333333333333335</v>
       </c>
       <c r="N406" s="39">
-        <v>10897.297297297297</v>
+        <v>13636.036036036036</v>
       </c>
       <c r="O406" s="3">
-        <v>18.336818564324322</v>
+        <v>21.211484304569098</v>
       </c>
       <c r="P406" s="4">
-        <v>9.4443243243243238</v>
+        <v>15.454174174174177</v>
       </c>
       <c r="Q406" s="32">
-        <v>243283</v>
+        <v>243241</v>
       </c>
       <c r="R406" s="33">
         <f t="shared" si="6"/>
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="S406" s="34">
-        <v>9.4084350721420638</v>
+        <v>8.1150729335494329</v>
       </c>
       <c r="T406" s="34">
-        <v>13.327023711218592</v>
+        <v>11.741006590772919</v>
       </c>
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.3">
@@ -26728,7 +26733,7 @@
         <v>113</v>
       </c>
       <c r="C407" s="45">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D407" s="44" t="s">
         <v>26</v>
@@ -26737,13 +26742,13 @@
         <v>27</v>
       </c>
       <c r="F407" s="6">
-        <v>24.68</v>
+        <v>25.65</v>
       </c>
       <c r="G407" s="26">
-        <v>242895</v>
+        <v>242912</v>
       </c>
       <c r="H407" s="40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I407" s="37" t="s">
         <v>23</v>
@@ -26752,35 +26757,35 @@
         <v>1.85</v>
       </c>
       <c r="K407" s="4">
-        <v>2.0133333333333332</v>
+        <v>1.6833333333333333</v>
       </c>
       <c r="L407" s="3">
         <v>3.1333333333333333</v>
       </c>
       <c r="M407" s="38">
-        <v>1.1333333333333335</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="N407" s="39">
-        <v>13636.036036036036</v>
+        <v>12194.594594594595</v>
       </c>
       <c r="O407" s="3">
-        <v>21.211484304569098</v>
+        <v>15.860056353417416</v>
       </c>
       <c r="P407" s="4">
-        <v>15.454174174174177</v>
+        <v>8.9427027027027037</v>
       </c>
       <c r="Q407" s="32">
-        <v>243241</v>
+        <v>243240</v>
       </c>
       <c r="R407" s="33">
         <f t="shared" si="6"/>
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="S407" s="34">
-        <v>8.1150729335494329</v>
+        <v>6.5153996101364537</v>
       </c>
       <c r="T407" s="34">
-        <v>11.741006590772919</v>
+        <v>11.411994973671611</v>
       </c>
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.3">
@@ -26791,7 +26796,7 @@
         <v>113</v>
       </c>
       <c r="C408" s="45">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="D408" s="44" t="s">
         <v>26</v>
@@ -26800,13 +26805,13 @@
         <v>27</v>
       </c>
       <c r="F408" s="6">
-        <v>25.65</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="G408" s="26">
-        <v>242912</v>
+        <v>242913</v>
       </c>
       <c r="H408" s="40" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I408" s="37" t="s">
         <v>23</v>
@@ -26815,35 +26820,35 @@
         <v>1.85</v>
       </c>
       <c r="K408" s="4">
-        <v>1.6833333333333333</v>
+        <v>1.7299999999999998</v>
       </c>
       <c r="L408" s="3">
-        <v>3.1333333333333333</v>
+        <v>3.2000000000000006</v>
       </c>
       <c r="M408" s="38">
         <v>0.73333333333333339</v>
       </c>
       <c r="N408" s="39">
-        <v>12194.594594594595</v>
+        <v>11214.414414414416</v>
       </c>
       <c r="O408" s="3">
-        <v>15.860056353417416</v>
+        <v>15.634237270255859</v>
       </c>
       <c r="P408" s="4">
-        <v>8.9427027027027037</v>
+        <v>8.2239039039039046</v>
       </c>
       <c r="Q408" s="32">
-        <v>243240</v>
+        <v>243239</v>
       </c>
       <c r="R408" s="33">
         <f t="shared" si="6"/>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S408" s="34">
-        <v>6.5153996101364537</v>
+        <v>6.9749608763693267</v>
       </c>
       <c r="T408" s="34">
-        <v>11.411994973671611</v>
+        <v>11.502068656046667</v>
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.3">
@@ -26854,59 +26859,59 @@
         <v>113</v>
       </c>
       <c r="C409" s="45">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="D409" s="44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E409" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F409" s="6">
-        <v>19.170000000000002</v>
+        <v>15.15</v>
       </c>
       <c r="G409" s="26">
-        <v>242913</v>
+        <v>242917</v>
       </c>
       <c r="H409" s="40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I409" s="37" t="s">
         <v>23</v>
       </c>
       <c r="J409" s="28">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="K409" s="4">
-        <v>1.7299999999999998</v>
+        <v>1.9933333333333334</v>
       </c>
       <c r="L409" s="3">
-        <v>3.2000000000000006</v>
+        <v>3.0666666666666664</v>
       </c>
       <c r="M409" s="38">
-        <v>0.73333333333333339</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="N409" s="39">
-        <v>11214.414414414416</v>
+        <v>11636.363636363638</v>
       </c>
       <c r="O409" s="3">
-        <v>15.634237270255859</v>
+        <v>16.510762978624644</v>
       </c>
       <c r="P409" s="4">
-        <v>8.2239039039039046</v>
+        <v>12.412121212121214</v>
       </c>
       <c r="Q409" s="32">
-        <v>243239</v>
+        <v>243280</v>
       </c>
       <c r="R409" s="33">
         <f t="shared" si="6"/>
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="S409" s="34">
-        <v>6.9749608763693267</v>
+        <v>8.7742574257425741</v>
       </c>
       <c r="T409" s="34">
-        <v>11.502068656046667</v>
+        <v>13.088210336267208</v>
       </c>
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.3">
@@ -26916,17 +26921,17 @@
       <c r="B410" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C410" s="45">
-        <v>1907</v>
+      <c r="C410" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="D410" s="44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E410" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F410" s="6">
-        <v>15.15</v>
+        <v>5.94</v>
       </c>
       <c r="G410" s="26">
         <v>242917</v>
@@ -26938,25 +26943,25 @@
         <v>23</v>
       </c>
       <c r="J410" s="28">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="K410" s="4">
-        <v>1.9933333333333334</v>
+        <v>2.4466666666666668</v>
       </c>
       <c r="L410" s="3">
         <v>3.0666666666666664</v>
       </c>
       <c r="M410" s="38">
-        <v>1.0666666666666667</v>
+        <v>1.1333333333333335</v>
       </c>
       <c r="N410" s="39">
-        <v>11636.363636363638</v>
+        <v>12021.621621621622</v>
       </c>
       <c r="O410" s="3">
-        <v>16.510762978624644</v>
+        <v>20.936678726643699</v>
       </c>
       <c r="P410" s="4">
-        <v>12.412121212121214</v>
+        <v>13.624504504504506</v>
       </c>
       <c r="Q410" s="32">
         <v>243280</v>
@@ -26966,10 +26971,10 @@
         <v>363</v>
       </c>
       <c r="S410" s="34">
-        <v>8.7742574257425741</v>
+        <v>10.649831649831651</v>
       </c>
       <c r="T410" s="34">
-        <v>13.088210336267208</v>
+        <v>13.788917167246286</v>
       </c>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.3">
@@ -26980,7 +26985,7 @@
         <v>113</v>
       </c>
       <c r="C411" s="45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D411" s="44" t="s">
         <v>26</v>
@@ -26989,10 +26994,10 @@
         <v>27</v>
       </c>
       <c r="F411" s="6">
-        <v>5.94</v>
+        <v>5.09</v>
       </c>
       <c r="G411" s="26">
-        <v>242917</v>
+        <v>242915</v>
       </c>
       <c r="H411" s="40" t="s">
         <v>24</v>
@@ -27004,35 +27009,35 @@
         <v>1.85</v>
       </c>
       <c r="K411" s="4">
-        <v>2.4466666666666668</v>
+        <v>2.2366666666666668</v>
       </c>
       <c r="L411" s="3">
-        <v>3.0666666666666664</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="M411" s="38">
-        <v>1.1333333333333335</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="N411" s="39">
-        <v>12021.621621621622</v>
+        <v>12396.396396396396</v>
       </c>
       <c r="O411" s="3">
-        <v>20.936678726643699</v>
+        <v>20.603770427480921</v>
       </c>
       <c r="P411" s="4">
-        <v>13.624504504504506</v>
+        <v>14.049249249249248</v>
       </c>
       <c r="Q411" s="32">
-        <v>243280</v>
+        <v>243281</v>
       </c>
       <c r="R411" s="33">
         <f t="shared" si="6"/>
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="S411" s="34">
-        <v>10.649831649831651</v>
+        <v>19.581532416502949</v>
       </c>
       <c r="T411" s="34">
-        <v>13.788917167246286</v>
+        <v>12.893437343232669</v>
       </c>
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.3">
@@ -27042,8 +27047,8 @@
       <c r="B412" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C412" s="45" t="s">
-        <v>115</v>
+      <c r="C412" s="45">
+        <v>1908</v>
       </c>
       <c r="D412" s="44" t="s">
         <v>26</v>
@@ -27052,10 +27057,10 @@
         <v>27</v>
       </c>
       <c r="F412" s="6">
-        <v>5.09</v>
+        <v>27.59</v>
       </c>
       <c r="G412" s="26">
-        <v>242915</v>
+        <v>242918</v>
       </c>
       <c r="H412" s="40" t="s">
         <v>24</v>
@@ -27067,35 +27072,35 @@
         <v>1.85</v>
       </c>
       <c r="K412" s="4">
-        <v>2.2366666666666668</v>
+        <v>1.9833333333333332</v>
       </c>
       <c r="L412" s="3">
         <v>3.1333333333333333</v>
       </c>
       <c r="M412" s="38">
-        <v>1.1333333333333333</v>
+        <v>1.4666666666666668</v>
       </c>
       <c r="N412" s="39">
-        <v>12396.396396396396</v>
+        <v>13636.036036036036</v>
       </c>
       <c r="O412" s="3">
-        <v>20.603770427480921</v>
+        <v>20.097120335001875</v>
       </c>
       <c r="P412" s="4">
-        <v>14.049249249249248</v>
+        <v>19.99951951951952</v>
       </c>
       <c r="Q412" s="32">
-        <v>243281</v>
+        <v>243242</v>
       </c>
       <c r="R412" s="33">
         <f t="shared" si="6"/>
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="S412" s="34">
-        <v>19.581532416502949</v>
+        <v>13.106197897789055</v>
       </c>
       <c r="T412" s="34">
-        <v>12.893437343232669</v>
+        <v>11.436614767699115</v>
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.3">
@@ -27105,8 +27110,8 @@
       <c r="B413" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C413" s="45">
-        <v>1908</v>
+      <c r="C413" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="D413" s="44" t="s">
         <v>26</v>
@@ -27115,10 +27120,10 @@
         <v>27</v>
       </c>
       <c r="F413" s="6">
-        <v>27.59</v>
+        <v>8.43</v>
       </c>
       <c r="G413" s="26">
-        <v>242918</v>
+        <v>242915</v>
       </c>
       <c r="H413" s="40" t="s">
         <v>24</v>
@@ -27127,38 +27132,38 @@
         <v>23</v>
       </c>
       <c r="J413" s="28">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="K413" s="4">
-        <v>1.9833333333333332</v>
+        <v>1.9799999999999998</v>
       </c>
       <c r="L413" s="3">
-        <v>3.1333333333333333</v>
+        <v>3.0333333333333332</v>
       </c>
       <c r="M413" s="38">
-        <v>1.4666666666666668</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N413" s="39">
-        <v>13636.036036036036</v>
+        <v>16420.202020202021</v>
       </c>
       <c r="O413" s="3">
-        <v>20.097120335001875</v>
+        <v>22.642310691242663</v>
       </c>
       <c r="P413" s="4">
-        <v>19.99951951951952</v>
+        <v>21.893602693602695</v>
       </c>
       <c r="Q413" s="32">
-        <v>243242</v>
+        <v>243294</v>
       </c>
       <c r="R413" s="33">
         <f t="shared" si="6"/>
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="S413" s="34">
-        <v>13.106197897789055</v>
+        <v>10.874258600237248</v>
       </c>
       <c r="T413" s="34">
-        <v>11.436614767699115</v>
+        <v>13.465167448456418</v>
       </c>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.3">
@@ -27168,8 +27173,8 @@
       <c r="B414" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C414" s="45" t="s">
-        <v>116</v>
+      <c r="C414" s="45">
+        <v>1909</v>
       </c>
       <c r="D414" s="44" t="s">
         <v>26</v>
@@ -27178,10 +27183,10 @@
         <v>27</v>
       </c>
       <c r="F414" s="6">
-        <v>8.43</v>
+        <v>20.53</v>
       </c>
       <c r="G414" s="26">
-        <v>242915</v>
+        <v>242914</v>
       </c>
       <c r="H414" s="40" t="s">
         <v>24</v>
@@ -27190,38 +27195,38 @@
         <v>23</v>
       </c>
       <c r="J414" s="28">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="K414" s="4">
-        <v>1.9799999999999998</v>
+        <v>1.9333333333333336</v>
       </c>
       <c r="L414" s="3">
-        <v>3.0333333333333332</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="M414" s="38">
-        <v>1.3333333333333333</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="N414" s="39">
-        <v>16420.202020202021</v>
+        <v>14154.954954954956</v>
       </c>
       <c r="O414" s="3">
-        <v>22.642310691242663</v>
+        <v>20.335984966339787</v>
       </c>
       <c r="P414" s="4">
-        <v>21.893602693602695</v>
+        <v>15.09861861861862</v>
       </c>
       <c r="Q414" s="32">
-        <v>243294</v>
+        <v>243241</v>
       </c>
       <c r="R414" s="33">
         <f t="shared" si="6"/>
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="S414" s="34">
-        <v>10.874258600237248</v>
+        <v>12.801753531417434</v>
       </c>
       <c r="T414" s="34">
-        <v>13.465167448456418</v>
+        <v>11.729309413286662</v>
       </c>
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.3">
@@ -27231,8 +27236,8 @@
       <c r="B415" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C415" s="45">
-        <v>1909</v>
+      <c r="C415" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="D415" s="44" t="s">
         <v>26</v>
@@ -27241,13 +27246,13 @@
         <v>27</v>
       </c>
       <c r="F415" s="6">
-        <v>20.53</v>
+        <v>7.38</v>
       </c>
       <c r="G415" s="26">
-        <v>242914</v>
+        <v>242920</v>
       </c>
       <c r="H415" s="40" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I415" s="37" t="s">
         <v>23</v>
@@ -27256,35 +27261,35 @@
         <v>1.85</v>
       </c>
       <c r="K415" s="4">
-        <v>1.9333333333333336</v>
+        <v>1.9866666666666666</v>
       </c>
       <c r="L415" s="3">
-        <v>3.1333333333333333</v>
+        <v>3.0333333333333332</v>
       </c>
       <c r="M415" s="38">
         <v>1.0666666666666667</v>
       </c>
       <c r="N415" s="39">
-        <v>14154.954954954956</v>
+        <v>9686.4864864864867</v>
       </c>
       <c r="O415" s="3">
-        <v>20.335984966339787</v>
+        <v>13.934314075509107</v>
       </c>
       <c r="P415" s="4">
-        <v>15.09861861861862</v>
+        <v>10.332252252252252</v>
       </c>
       <c r="Q415" s="32">
-        <v>243241</v>
+        <v>243243</v>
       </c>
       <c r="R415" s="33">
         <f t="shared" si="6"/>
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S415" s="34">
-        <v>12.801753531417434</v>
+        <v>7.7317073170731714</v>
       </c>
       <c r="T415" s="34">
-        <v>11.729309413286662</v>
+        <v>11.288753943217666</v>
       </c>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.3">
@@ -27294,8 +27299,8 @@
       <c r="B416" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C416" s="45" t="s">
-        <v>117</v>
+      <c r="C416" s="45">
+        <v>1910</v>
       </c>
       <c r="D416" s="44" t="s">
         <v>26</v>
@@ -27304,13 +27309,13 @@
         <v>27</v>
       </c>
       <c r="F416" s="6">
-        <v>7.38</v>
+        <v>17.11</v>
       </c>
       <c r="G416" s="26">
         <v>242920</v>
       </c>
       <c r="H416" s="40" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I416" s="37" t="s">
         <v>23</v>
@@ -27319,35 +27324,35 @@
         <v>1.85</v>
       </c>
       <c r="K416" s="4">
-        <v>1.9866666666666666</v>
+        <v>2.08</v>
       </c>
       <c r="L416" s="3">
-        <v>3.0333333333333332</v>
+        <v>3.1</v>
       </c>
       <c r="M416" s="38">
-        <v>1.0666666666666667</v>
+        <v>1.1333333333333335</v>
       </c>
       <c r="N416" s="39">
-        <v>9686.4864864864867</v>
+        <v>13981.981981981982</v>
       </c>
       <c r="O416" s="3">
-        <v>13.934314075509107</v>
+        <v>21.153987561790274</v>
       </c>
       <c r="P416" s="4">
-        <v>10.332252252252252</v>
+        <v>15.846246246246251</v>
       </c>
       <c r="Q416" s="32">
-        <v>243243</v>
+        <v>243239</v>
       </c>
       <c r="R416" s="33">
         <f t="shared" si="6"/>
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S416" s="34">
-        <v>7.7317073170731714</v>
+        <v>11.862068965517242</v>
       </c>
       <c r="T416" s="34">
-        <v>11.288753943217666</v>
+        <v>11.383346472211272</v>
       </c>
     </row>
     <row r="417" spans="1:20" x14ac:dyDescent="0.3">
@@ -27358,7 +27363,7 @@
         <v>113</v>
       </c>
       <c r="C417" s="45">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="D417" s="44" t="s">
         <v>26</v>
@@ -27367,10 +27372,10 @@
         <v>27</v>
       </c>
       <c r="F417" s="6">
-        <v>17.11</v>
+        <v>33.33</v>
       </c>
       <c r="G417" s="26">
-        <v>242920</v>
+        <v>242922</v>
       </c>
       <c r="H417" s="40" t="s">
         <v>24</v>
@@ -27382,35 +27387,35 @@
         <v>1.85</v>
       </c>
       <c r="K417" s="4">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="L417" s="3">
-        <v>3.1</v>
+        <v>3.0333333333333332</v>
       </c>
       <c r="M417" s="38">
-        <v>1.1333333333333335</v>
+        <v>1.2666666666666668</v>
       </c>
       <c r="N417" s="39">
-        <v>13981.981981981982</v>
+        <v>11848.648648648648</v>
       </c>
       <c r="O417" s="3">
-        <v>21.153987561790274</v>
+        <v>15.595800987666161</v>
       </c>
       <c r="P417" s="4">
-        <v>15.846246246246251</v>
+        <v>15.00828828828829</v>
       </c>
       <c r="Q417" s="32">
-        <v>243239</v>
+        <v>243293</v>
       </c>
       <c r="R417" s="33">
         <f t="shared" si="6"/>
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="S417" s="34">
-        <v>11.862068965517242</v>
+        <v>8.1497149714971524</v>
       </c>
       <c r="T417" s="34">
-        <v>11.383346472211272</v>
+        <v>13.127850016566653</v>
       </c>
     </row>
     <row r="418" spans="1:20" x14ac:dyDescent="0.3">
@@ -27420,20 +27425,20 @@
       <c r="B418" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C418" s="45">
-        <v>1913</v>
+      <c r="C418" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="D418" s="44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E418" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F418" s="6">
-        <v>33.33</v>
+        <v>9.65</v>
       </c>
       <c r="G418" s="26">
-        <v>242922</v>
+        <v>242923</v>
       </c>
       <c r="H418" s="40" t="s">
         <v>24</v>
@@ -27445,35 +27450,35 @@
         <v>1.85</v>
       </c>
       <c r="K418" s="4">
-        <v>1.89</v>
+        <v>1.8533333333333335</v>
       </c>
       <c r="L418" s="3">
-        <v>3.0333333333333332</v>
+        <v>3.1</v>
       </c>
       <c r="M418" s="38">
-        <v>1.2666666666666668</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="N418" s="39">
-        <v>11848.648648648648</v>
+        <v>9830.6306306306305</v>
       </c>
       <c r="O418" s="3">
-        <v>15.595800987666161</v>
+        <v>13.25241681788656</v>
       </c>
       <c r="P418" s="4">
-        <v>15.00828828828829</v>
+        <v>7.8645045045045059</v>
       </c>
       <c r="Q418" s="32">
-        <v>243293</v>
+        <v>243279</v>
       </c>
       <c r="R418" s="33">
         <f t="shared" si="6"/>
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="S418" s="34">
-        <v>8.1497149714971524</v>
+        <v>10.760621761658031</v>
       </c>
       <c r="T418" s="34">
-        <v>13.127850016566653</v>
+        <v>12.878421610169491</v>
       </c>
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.3">
@@ -27483,8 +27488,8 @@
       <c r="B419" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C419" s="45" t="s">
-        <v>118</v>
+      <c r="C419" s="45">
+        <v>1914</v>
       </c>
       <c r="D419" s="44" t="s">
         <v>29</v>
@@ -27493,7 +27498,7 @@
         <v>27</v>
       </c>
       <c r="F419" s="6">
-        <v>9.65</v>
+        <v>19.7</v>
       </c>
       <c r="G419" s="26">
         <v>242923</v>
@@ -27505,25 +27510,25 @@
         <v>23</v>
       </c>
       <c r="J419" s="28">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="K419" s="4">
-        <v>1.8533333333333335</v>
+        <v>1.6533333333333333</v>
       </c>
       <c r="L419" s="3">
         <v>3.1</v>
       </c>
       <c r="M419" s="38">
-        <v>0.80000000000000016</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N419" s="39">
-        <v>9830.6306306306305</v>
+        <v>10602.020202020203</v>
       </c>
       <c r="O419" s="3">
-        <v>13.25241681788656</v>
+        <v>12.749971698822467</v>
       </c>
       <c r="P419" s="4">
-        <v>7.8645045045045059</v>
+        <v>7.0680134680134685</v>
       </c>
       <c r="Q419" s="32">
         <v>243279</v>
@@ -27533,10 +27538,10 @@
         <v>356</v>
       </c>
       <c r="S419" s="34">
-        <v>10.760621761658031</v>
+        <v>6.8091370558375628</v>
       </c>
       <c r="T419" s="34">
-        <v>12.878421610169491</v>
+        <v>13.370002236469361</v>
       </c>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.3">
@@ -27547,19 +27552,19 @@
         <v>113</v>
       </c>
       <c r="C420" s="45">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="D420" s="44" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E420" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F420" s="6">
-        <v>19.7</v>
+        <v>56.14</v>
       </c>
       <c r="G420" s="26">
-        <v>242923</v>
+        <v>242928</v>
       </c>
       <c r="H420" s="40" t="s">
         <v>24</v>
@@ -27568,38 +27573,38 @@
         <v>23</v>
       </c>
       <c r="J420" s="28">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="K420" s="4">
-        <v>1.6533333333333333</v>
+        <v>2.0266666666666668</v>
       </c>
       <c r="L420" s="3">
-        <v>3.1</v>
+        <v>3.0666666666666664</v>
       </c>
       <c r="M420" s="38">
-        <v>0.66666666666666663</v>
+        <v>1.4666666666666668</v>
       </c>
       <c r="N420" s="39">
-        <v>10602.020202020203</v>
+        <v>10926.126126126126</v>
       </c>
       <c r="O420" s="3">
-        <v>12.749971698822467</v>
+        <v>15.762259137664127</v>
       </c>
       <c r="P420" s="4">
-        <v>7.0680134680134685</v>
+        <v>16.024984984984986</v>
       </c>
       <c r="Q420" s="32">
-        <v>243279</v>
+        <v>243277</v>
       </c>
       <c r="R420" s="33">
         <f t="shared" si="6"/>
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="S420" s="34">
-        <v>6.8091370558375628</v>
+        <v>13.427858924118276</v>
       </c>
       <c r="T420" s="34">
-        <v>13.370002236469361</v>
+        <v>13.320905364533587</v>
       </c>
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.3">
@@ -27610,19 +27615,19 @@
         <v>113</v>
       </c>
       <c r="C421" s="45">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D421" s="44" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E421" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F421" s="6">
-        <v>56.14</v>
+        <v>105.16</v>
       </c>
       <c r="G421" s="26">
-        <v>242928</v>
+        <v>242961</v>
       </c>
       <c r="H421" s="40" t="s">
         <v>24</v>
@@ -27634,103 +27639,41 @@
         <v>1.85</v>
       </c>
       <c r="K421" s="4">
-        <v>2.0266666666666668</v>
+        <v>1.7899999999999998</v>
       </c>
       <c r="L421" s="3">
-        <v>3.0666666666666664</v>
+        <v>3.0333333333333332</v>
       </c>
       <c r="M421" s="38">
-        <v>1.4666666666666668</v>
+        <v>1.1333333333333335</v>
       </c>
       <c r="N421" s="39">
-        <v>10926.126126126126</v>
+        <v>11762.162162162162</v>
       </c>
       <c r="O421" s="3">
-        <v>15.762259137664127</v>
+        <v>14.662811541487848</v>
       </c>
       <c r="P421" s="4">
-        <v>16.024984984984986</v>
+        <v>13.330450450450453</v>
       </c>
       <c r="Q421" s="32">
-        <v>243277</v>
+        <v>243275</v>
       </c>
       <c r="R421" s="33">
         <f t="shared" si="6"/>
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="S421" s="34">
-        <v>13.427858924118276</v>
+        <v>11.300019018638265</v>
       </c>
       <c r="T421" s="34">
-        <v>13.320905364533587</v>
-      </c>
-    </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A422" s="44">
-        <v>4</v>
-      </c>
-      <c r="B422" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C422" s="45">
-        <v>1916</v>
-      </c>
-      <c r="D422" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E422" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F422" s="6">
-        <v>105.16</v>
-      </c>
-      <c r="G422" s="26">
-        <v>242961</v>
-      </c>
-      <c r="H422" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I422" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J422" s="28">
-        <v>1.85</v>
-      </c>
-      <c r="K422" s="4">
-        <v>1.7899999999999998</v>
-      </c>
-      <c r="L422" s="3">
-        <v>3.0333333333333332</v>
-      </c>
-      <c r="M422" s="38">
-        <v>1.1333333333333335</v>
-      </c>
-      <c r="N422" s="39">
-        <v>11762.162162162162</v>
-      </c>
-      <c r="O422" s="3">
-        <v>14.662811541487848</v>
-      </c>
-      <c r="P422" s="4">
-        <v>13.330450450450453</v>
-      </c>
-      <c r="Q422" s="32">
-        <v>243275</v>
-      </c>
-      <c r="R422" s="33">
-        <f t="shared" si="6"/>
-        <v>314</v>
-      </c>
-      <c r="S422" s="34">
-        <v>11.300019018638265</v>
-      </c>
-      <c r="T422" s="34">
         <v>12.716140603151622</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C422">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  <autoFilter ref="A1:T421" xr:uid="{CB04E720-C073-4E22-8C38-A67E3589081B}"/>
+  <conditionalFormatting sqref="C1:C421">
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
